--- a/Bus Planning.xlsx
+++ b/Bus Planning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingfontys-my.sharepoint.com/personal/872575_fontys_nl/Documents/Documenten/Python/PJ5 Dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingfontys-my.sharepoint.com/personal/558418_student_fontys_nl/Documents/jaar 2/kwartiel 5/project/busplan_eindopdracht/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3" documentId="11_0399E22E9067360E62355476585DCE3A87431D38" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE366500-D517-4BCD-A4AF-9BBB621D2634}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2009,6 +2009,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2053,7 +2054,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2356,12 +2357,12 @@
   <dimension ref="A1:H721"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2410,7 +2411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2485,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2508,7 +2509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2534,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2583,7 +2584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2606,7 +2607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2655,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2681,7 +2682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2704,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2730,7 +2731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2753,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2779,7 +2780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2802,7 +2803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2828,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2851,7 +2852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2877,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -2900,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -2926,7 +2927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2975,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -2998,7 +2999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -3047,7 +3048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -3073,7 +3074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3096,7 +3097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -3119,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -3142,7 +3143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -3168,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -3191,7 +3192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -3217,7 +3218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -3243,7 +3244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -3266,7 +3267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -3289,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -3315,7 +3316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -3338,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -3364,7 +3365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -3387,7 +3388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -3413,7 +3414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -3436,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -3462,7 +3463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -3485,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -3511,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -3534,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -3560,7 +3561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -3583,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -3606,7 +3607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -3629,7 +3630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -3678,7 +3679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -3704,7 +3705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -3753,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -3776,7 +3777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -3802,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -3825,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -3851,7 +3852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -3877,7 +3878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -3900,7 +3901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -3923,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -3946,7 +3947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -3972,7 +3973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -3995,7 +3996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -4021,7 +4022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -4047,7 +4048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -4070,7 +4071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -4093,7 +4094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -4119,7 +4120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -4142,7 +4143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -4168,7 +4169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -4191,7 +4192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -4217,7 +4218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -4240,7 +4241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -4266,7 +4267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -4289,7 +4290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -4315,7 +4316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -4338,7 +4339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -4364,7 +4365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -4387,7 +4388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -4413,7 +4414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -4436,7 +4437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -4462,7 +4463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -4485,7 +4486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -4511,7 +4512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -4534,7 +4535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -4560,7 +4561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -4583,7 +4584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -4609,7 +4610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -4632,7 +4633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -4655,7 +4656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -4678,7 +4679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -4704,7 +4705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -4727,7 +4728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -4753,7 +4754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -4779,7 +4780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -4802,7 +4803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -4825,7 +4826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -4851,7 +4852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -4874,7 +4875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -4900,7 +4901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -4923,7 +4924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -4949,7 +4950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -4972,7 +4973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -4998,7 +4999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -5021,7 +5022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -5047,7 +5048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -5070,7 +5071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -5096,7 +5097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -5119,7 +5120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>13</v>
       </c>
@@ -5145,7 +5146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -5168,7 +5169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -5191,7 +5192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -5214,7 +5215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -5240,7 +5241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -5263,7 +5264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -5289,7 +5290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -5312,7 +5313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -5338,7 +5339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -5361,7 +5362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>13</v>
       </c>
@@ -5387,7 +5388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -5410,7 +5411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>13</v>
       </c>
@@ -5436,7 +5437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -5459,7 +5460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -5482,7 +5483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -5508,7 +5509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -5531,7 +5532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>13</v>
       </c>
@@ -5557,7 +5558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -5580,7 +5581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>13</v>
       </c>
@@ -5606,7 +5607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -5629,7 +5630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -5655,7 +5656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>13</v>
       </c>
@@ -5678,7 +5679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -5704,7 +5705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>9</v>
       </c>
@@ -5727,7 +5728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -5753,7 +5754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -5776,7 +5777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -5802,7 +5803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -5825,7 +5826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -5851,7 +5852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -5874,7 +5875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -5900,7 +5901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -5923,7 +5924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>13</v>
       </c>
@@ -5949,7 +5950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>9</v>
       </c>
@@ -5972,7 +5973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>13</v>
       </c>
@@ -5998,7 +5999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>9</v>
       </c>
@@ -6021,7 +6022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>13</v>
       </c>
@@ -6047,7 +6048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -6070,7 +6071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>13</v>
       </c>
@@ -6096,7 +6097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>9</v>
       </c>
@@ -6119,7 +6120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>13</v>
       </c>
@@ -6145,7 +6146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>9</v>
       </c>
@@ -6168,7 +6169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -6191,7 +6192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -6214,7 +6215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>13</v>
       </c>
@@ -6240,7 +6241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>9</v>
       </c>
@@ -6263,7 +6264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>13</v>
       </c>
@@ -6289,7 +6290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>9</v>
       </c>
@@ -6315,7 +6316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>9</v>
       </c>
@@ -6338,7 +6339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -6361,7 +6362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>13</v>
       </c>
@@ -6387,7 +6388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>9</v>
       </c>
@@ -6410,7 +6411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>9</v>
       </c>
@@ -6436,7 +6437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>13</v>
       </c>
@@ -6459,7 +6460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>13</v>
       </c>
@@ -6485,7 +6486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>9</v>
       </c>
@@ -6508,7 +6509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -6534,7 +6535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>9</v>
       </c>
@@ -6557,7 +6558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>9</v>
       </c>
@@ -6583,7 +6584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>13</v>
       </c>
@@ -6609,7 +6610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -6632,7 +6633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>9</v>
       </c>
@@ -6655,7 +6656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>13</v>
       </c>
@@ -6681,7 +6682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>9</v>
       </c>
@@ -6704,7 +6705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -6727,7 +6728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -6750,7 +6751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>9</v>
       </c>
@@ -6776,7 +6777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>13</v>
       </c>
@@ -6799,7 +6800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -6822,7 +6823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>9</v>
       </c>
@@ -6848,7 +6849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>13</v>
       </c>
@@ -6871,7 +6872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -6897,7 +6898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>9</v>
       </c>
@@ -6920,7 +6921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>13</v>
       </c>
@@ -6946,7 +6947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -6969,7 +6970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -6995,7 +6996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>13</v>
       </c>
@@ -7018,7 +7019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>13</v>
       </c>
@@ -7044,7 +7045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -7067,7 +7068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>13</v>
       </c>
@@ -7093,7 +7094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>9</v>
       </c>
@@ -7116,7 +7117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>13</v>
       </c>
@@ -7142,7 +7143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -7165,7 +7166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>9</v>
       </c>
@@ -7191,7 +7192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>13</v>
       </c>
@@ -7214,7 +7215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -7240,7 +7241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>9</v>
       </c>
@@ -7263,7 +7264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>13</v>
       </c>
@@ -7289,7 +7290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>9</v>
       </c>
@@ -7312,7 +7313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -7338,7 +7339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>9</v>
       </c>
@@ -7361,7 +7362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>13</v>
       </c>
@@ -7387,7 +7388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>9</v>
       </c>
@@ -7410,7 +7411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>13</v>
       </c>
@@ -7436,7 +7437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>9</v>
       </c>
@@ -7459,7 +7460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>13</v>
       </c>
@@ -7485,7 +7486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>9</v>
       </c>
@@ -7508,7 +7509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>8</v>
       </c>
@@ -7531,7 +7532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -7554,7 +7555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>13</v>
       </c>
@@ -7580,7 +7581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>9</v>
       </c>
@@ -7603,7 +7604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>13</v>
       </c>
@@ -7629,7 +7630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>9</v>
       </c>
@@ -7652,7 +7653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -7678,7 +7679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>13</v>
       </c>
@@ -7701,7 +7702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>13</v>
       </c>
@@ -7727,7 +7728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>9</v>
       </c>
@@ -7750,7 +7751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>13</v>
       </c>
@@ -7776,7 +7777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>9</v>
       </c>
@@ -7799,7 +7800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>8</v>
       </c>
@@ -7822,7 +7823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>8</v>
       </c>
@@ -7845,7 +7846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>9</v>
       </c>
@@ -7871,7 +7872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>13</v>
       </c>
@@ -7894,7 +7895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>8</v>
       </c>
@@ -7917,7 +7918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>9</v>
       </c>
@@ -7943,7 +7944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -7966,7 +7967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>13</v>
       </c>
@@ -7992,7 +7993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>9</v>
       </c>
@@ -8015,7 +8016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>13</v>
       </c>
@@ -8041,7 +8042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>9</v>
       </c>
@@ -8064,7 +8065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>9</v>
       </c>
@@ -8090,7 +8091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>13</v>
       </c>
@@ -8113,7 +8114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>13</v>
       </c>
@@ -8139,7 +8140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>9</v>
       </c>
@@ -8162,7 +8163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>13</v>
       </c>
@@ -8188,7 +8189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>9</v>
       </c>
@@ -8211,7 +8212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>13</v>
       </c>
@@ -8237,7 +8238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>9</v>
       </c>
@@ -8260,7 +8261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>13</v>
       </c>
@@ -8286,7 +8287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>9</v>
       </c>
@@ -8309,7 +8310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>13</v>
       </c>
@@ -8335,7 +8336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>9</v>
       </c>
@@ -8358,7 +8359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>13</v>
       </c>
@@ -8384,7 +8385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>9</v>
       </c>
@@ -8407,7 +8408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>13</v>
       </c>
@@ -8433,7 +8434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>9</v>
       </c>
@@ -8456,7 +8457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>9</v>
       </c>
@@ -8482,7 +8483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>13</v>
       </c>
@@ -8505,7 +8506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>13</v>
       </c>
@@ -8531,7 +8532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>9</v>
       </c>
@@ -8554,7 +8555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>9</v>
       </c>
@@ -8580,7 +8581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>13</v>
       </c>
@@ -8603,7 +8604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>13</v>
       </c>
@@ -8629,7 +8630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>9</v>
       </c>
@@ -8652,7 +8653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>8</v>
       </c>
@@ -8675,7 +8676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>8</v>
       </c>
@@ -8698,7 +8699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>9</v>
       </c>
@@ -8724,7 +8725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>13</v>
       </c>
@@ -8747,7 +8748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>13</v>
       </c>
@@ -8773,7 +8774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>9</v>
       </c>
@@ -8796,7 +8797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>9</v>
       </c>
@@ -8822,7 +8823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>13</v>
       </c>
@@ -8845,7 +8846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>13</v>
       </c>
@@ -8871,7 +8872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>9</v>
       </c>
@@ -8894,7 +8895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>13</v>
       </c>
@@ -8920,7 +8921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>9</v>
       </c>
@@ -8943,7 +8944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>8</v>
       </c>
@@ -8966,7 +8967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>9</v>
       </c>
@@ -8992,7 +8993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>13</v>
       </c>
@@ -9015,7 +9016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>13</v>
       </c>
@@ -9041,7 +9042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -9064,7 +9065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>13</v>
       </c>
@@ -9090,7 +9091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>9</v>
       </c>
@@ -9113,7 +9114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>13</v>
       </c>
@@ -9139,7 +9140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>9</v>
       </c>
@@ -9162,7 +9163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>13</v>
       </c>
@@ -9188,7 +9189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>9</v>
       </c>
@@ -9211,7 +9212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>13</v>
       </c>
@@ -9237,7 +9238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>9</v>
       </c>
@@ -9260,7 +9261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>13</v>
       </c>
@@ -9286,7 +9287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>9</v>
       </c>
@@ -9309,7 +9310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>13</v>
       </c>
@@ -9335,7 +9336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>9</v>
       </c>
@@ -9358,7 +9359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>13</v>
       </c>
@@ -9384,7 +9385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>9</v>
       </c>
@@ -9407,7 +9408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>13</v>
       </c>
@@ -9433,7 +9434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>9</v>
       </c>
@@ -9456,7 +9457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>13</v>
       </c>
@@ -9482,7 +9483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>9</v>
       </c>
@@ -9505,7 +9506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>8</v>
       </c>
@@ -9528,7 +9529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>8</v>
       </c>
@@ -9551,7 +9552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>13</v>
       </c>
@@ -9577,7 +9578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>9</v>
       </c>
@@ -9600,7 +9601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>9</v>
       </c>
@@ -9626,7 +9627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>13</v>
       </c>
@@ -9649,7 +9650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>13</v>
       </c>
@@ -9675,7 +9676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>9</v>
       </c>
@@ -9698,7 +9699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>9</v>
       </c>
@@ -9724,7 +9725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>13</v>
       </c>
@@ -9747,7 +9748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>13</v>
       </c>
@@ -9773,7 +9774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>9</v>
       </c>
@@ -9796,7 +9797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>13</v>
       </c>
@@ -9822,7 +9823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>9</v>
       </c>
@@ -9845,7 +9846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>9</v>
       </c>
@@ -9871,7 +9872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>13</v>
       </c>
@@ -9894,7 +9895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>13</v>
       </c>
@@ -9920,7 +9921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>9</v>
       </c>
@@ -9943,7 +9944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>8</v>
       </c>
@@ -9966,7 +9967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>9</v>
       </c>
@@ -9992,7 +9993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>13</v>
       </c>
@@ -10015,7 +10016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>13</v>
       </c>
@@ -10041,7 +10042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>9</v>
       </c>
@@ -10064,7 +10065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>13</v>
       </c>
@@ -10090,7 +10091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>9</v>
       </c>
@@ -10113,7 +10114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>13</v>
       </c>
@@ -10139,7 +10140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>9</v>
       </c>
@@ -10162,7 +10163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>13</v>
       </c>
@@ -10188,7 +10189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>9</v>
       </c>
@@ -10211,7 +10212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>13</v>
       </c>
@@ -10237,7 +10238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>9</v>
       </c>
@@ -10260,7 +10261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>13</v>
       </c>
@@ -10286,7 +10287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>9</v>
       </c>
@@ -10309,7 +10310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>13</v>
       </c>
@@ -10335,7 +10336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>9</v>
       </c>
@@ -10358,7 +10359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>13</v>
       </c>
@@ -10384,7 +10385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>9</v>
       </c>
@@ -10407,7 +10408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>13</v>
       </c>
@@ -10433,7 +10434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>9</v>
       </c>
@@ -10456,7 +10457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>13</v>
       </c>
@@ -10482,7 +10483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>9</v>
       </c>
@@ -10505,7 +10506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>8</v>
       </c>
@@ -10528,7 +10529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>8</v>
       </c>
@@ -10551,7 +10552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>13</v>
       </c>
@@ -10577,7 +10578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>9</v>
       </c>
@@ -10603,7 +10604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>9</v>
       </c>
@@ -10626,7 +10627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>13</v>
       </c>
@@ -10649,7 +10650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>13</v>
       </c>
@@ -10675,7 +10676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>9</v>
       </c>
@@ -10698,7 +10699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>13</v>
       </c>
@@ -10724,7 +10725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>9</v>
       </c>
@@ -10747,7 +10748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>13</v>
       </c>
@@ -10773,7 +10774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>9</v>
       </c>
@@ -10796,7 +10797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>13</v>
       </c>
@@ -10822,7 +10823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>9</v>
       </c>
@@ -10845,7 +10846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>9</v>
       </c>
@@ -10871,7 +10872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>13</v>
       </c>
@@ -10894,7 +10895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>13</v>
       </c>
@@ -10920,7 +10921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>9</v>
       </c>
@@ -10943,7 +10944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>8</v>
       </c>
@@ -10966,7 +10967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>9</v>
       </c>
@@ -10992,7 +10993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>13</v>
       </c>
@@ -11015,7 +11016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>13</v>
       </c>
@@ -11041,7 +11042,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>9</v>
       </c>
@@ -11064,7 +11065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>13</v>
       </c>
@@ -11090,7 +11091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>9</v>
       </c>
@@ -11113,7 +11114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>13</v>
       </c>
@@ -11139,7 +11140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>9</v>
       </c>
@@ -11162,7 +11163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>13</v>
       </c>
@@ -11188,7 +11189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>9</v>
       </c>
@@ -11211,7 +11212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>13</v>
       </c>
@@ -11237,7 +11238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>9</v>
       </c>
@@ -11260,7 +11261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>13</v>
       </c>
@@ -11286,7 +11287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>9</v>
       </c>
@@ -11309,7 +11310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>13</v>
       </c>
@@ -11335,7 +11336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>9</v>
       </c>
@@ -11358,7 +11359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>13</v>
       </c>
@@ -11384,7 +11385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>9</v>
       </c>
@@ -11407,7 +11408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>13</v>
       </c>
@@ -11433,7 +11434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>9</v>
       </c>
@@ -11456,7 +11457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>13</v>
       </c>
@@ -11482,7 +11483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>9</v>
       </c>
@@ -11505,7 +11506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>8</v>
       </c>
@@ -11528,7 +11529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>8</v>
       </c>
@@ -11551,7 +11552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>9</v>
       </c>
@@ -11577,7 +11578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>13</v>
       </c>
@@ -11600,7 +11601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>13</v>
       </c>
@@ -11626,7 +11627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>9</v>
       </c>
@@ -11649,7 +11650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>13</v>
       </c>
@@ -11675,7 +11676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>9</v>
       </c>
@@ -11698,7 +11699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>13</v>
       </c>
@@ -11724,7 +11725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>9</v>
       </c>
@@ -11747,7 +11748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>13</v>
       </c>
@@ -11773,7 +11774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>9</v>
       </c>
@@ -11796,7 +11797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>9</v>
       </c>
@@ -11822,7 +11823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>13</v>
       </c>
@@ -11845,7 +11846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>13</v>
       </c>
@@ -11871,7 +11872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>9</v>
       </c>
@@ -11894,7 +11895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>9</v>
       </c>
@@ -11920,7 +11921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>13</v>
       </c>
@@ -11943,7 +11944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>8</v>
       </c>
@@ -11966,7 +11967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>9</v>
       </c>
@@ -11992,7 +11993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>13</v>
       </c>
@@ -12015,7 +12016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>13</v>
       </c>
@@ -12041,7 +12042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>9</v>
       </c>
@@ -12064,7 +12065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>9</v>
       </c>
@@ -12090,7 +12091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>13</v>
       </c>
@@ -12113,7 +12114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>13</v>
       </c>
@@ -12139,7 +12140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>9</v>
       </c>
@@ -12162,7 +12163,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>9</v>
       </c>
@@ -12188,7 +12189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>13</v>
       </c>
@@ -12211,7 +12212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>13</v>
       </c>
@@ -12237,7 +12238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>9</v>
       </c>
@@ -12260,7 +12261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>9</v>
       </c>
@@ -12286,7 +12287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>13</v>
       </c>
@@ -12309,7 +12310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>13</v>
       </c>
@@ -12335,7 +12336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>9</v>
       </c>
@@ -12358,7 +12359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>9</v>
       </c>
@@ -12384,7 +12385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>13</v>
       </c>
@@ -12407,7 +12408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>13</v>
       </c>
@@ -12433,7 +12434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>9</v>
       </c>
@@ -12456,7 +12457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>9</v>
       </c>
@@ -12482,7 +12483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>13</v>
       </c>
@@ -12505,7 +12506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>13</v>
       </c>
@@ -12531,7 +12532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>9</v>
       </c>
@@ -12554,7 +12555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>9</v>
       </c>
@@ -12580,7 +12581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>13</v>
       </c>
@@ -12603,7 +12604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>13</v>
       </c>
@@ -12629,7 +12630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>9</v>
       </c>
@@ -12655,7 +12656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>9</v>
       </c>
@@ -12678,7 +12679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>13</v>
       </c>
@@ -12701,7 +12702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>13</v>
       </c>
@@ -12727,7 +12728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>9</v>
       </c>
@@ -12750,7 +12751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>13</v>
       </c>
@@ -12776,7 +12777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>9</v>
       </c>
@@ -12799,7 +12800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>13</v>
       </c>
@@ -12825,7 +12826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>9</v>
       </c>
@@ -12848,7 +12849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>8</v>
       </c>
@@ -12871,7 +12872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>8</v>
       </c>
@@ -12894,7 +12895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>13</v>
       </c>
@@ -12920,7 +12921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>9</v>
       </c>
@@ -12943,7 +12944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>9</v>
       </c>
@@ -12969,7 +12970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>13</v>
       </c>
@@ -12992,7 +12993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>13</v>
       </c>
@@ -13018,7 +13019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>9</v>
       </c>
@@ -13041,7 +13042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>9</v>
       </c>
@@ -13067,7 +13068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>13</v>
       </c>
@@ -13090,7 +13091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>8</v>
       </c>
@@ -13113,7 +13114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>9</v>
       </c>
@@ -13139,7 +13140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>13</v>
       </c>
@@ -13162,7 +13163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>13</v>
       </c>
@@ -13188,7 +13189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>9</v>
       </c>
@@ -13211,7 +13212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>9</v>
       </c>
@@ -13237,7 +13238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>13</v>
       </c>
@@ -13260,7 +13261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>13</v>
       </c>
@@ -13286,7 +13287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>9</v>
       </c>
@@ -13309,7 +13310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>9</v>
       </c>
@@ -13335,7 +13336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>13</v>
       </c>
@@ -13358,7 +13359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>13</v>
       </c>
@@ -13384,7 +13385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>9</v>
       </c>
@@ -13407,7 +13408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>9</v>
       </c>
@@ -13433,7 +13434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>13</v>
       </c>
@@ -13456,7 +13457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>13</v>
       </c>
@@ -13482,7 +13483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>9</v>
       </c>
@@ -13505,7 +13506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>9</v>
       </c>
@@ -13531,7 +13532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>13</v>
       </c>
@@ -13554,7 +13555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>13</v>
       </c>
@@ -13580,7 +13581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>9</v>
       </c>
@@ -13603,7 +13604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>9</v>
       </c>
@@ -13629,7 +13630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>13</v>
       </c>
@@ -13652,7 +13653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>13</v>
       </c>
@@ -13678,7 +13679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>9</v>
       </c>
@@ -13704,7 +13705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>9</v>
       </c>
@@ -13727,7 +13728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>13</v>
       </c>
@@ -13750,7 +13751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>13</v>
       </c>
@@ -13776,7 +13777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>9</v>
       </c>
@@ -13799,7 +13800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>13</v>
       </c>
@@ -13825,7 +13826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>9</v>
       </c>
@@ -13848,7 +13849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>9</v>
       </c>
@@ -13874,7 +13875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>13</v>
       </c>
@@ -13897,7 +13898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>13</v>
       </c>
@@ -13923,7 +13924,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>9</v>
       </c>
@@ -13946,7 +13947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>9</v>
       </c>
@@ -13972,7 +13973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>13</v>
       </c>
@@ -13995,7 +13996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>13</v>
       </c>
@@ -14021,7 +14022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>9</v>
       </c>
@@ -14044,7 +14045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>8</v>
       </c>
@@ -14067,7 +14068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>8</v>
       </c>
@@ -14090,7 +14091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>9</v>
       </c>
@@ -14116,7 +14117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>13</v>
       </c>
@@ -14139,7 +14140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>9</v>
       </c>
@@ -14165,7 +14166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>13</v>
       </c>
@@ -14188,7 +14189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>8</v>
       </c>
@@ -14211,7 +14212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>9</v>
       </c>
@@ -14237,7 +14238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>13</v>
       </c>
@@ -14260,7 +14261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>9</v>
       </c>
@@ -14286,7 +14287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>13</v>
       </c>
@@ -14309,7 +14310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>9</v>
       </c>
@@ -14335,7 +14336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>13</v>
       </c>
@@ -14358,7 +14359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>9</v>
       </c>
@@ -14384,7 +14385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>13</v>
       </c>
@@ -14407,7 +14408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>9</v>
       </c>
@@ -14433,7 +14434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>13</v>
       </c>
@@ -14456,7 +14457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>9</v>
       </c>
@@ -14482,7 +14483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>13</v>
       </c>
@@ -14505,7 +14506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>9</v>
       </c>
@@ -14531,7 +14532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>13</v>
       </c>
@@ -14554,7 +14555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>9</v>
       </c>
@@ -14580,7 +14581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>13</v>
       </c>
@@ -14603,7 +14604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>13</v>
       </c>
@@ -14629,7 +14630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>9</v>
       </c>
@@ -14652,7 +14653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>9</v>
       </c>
@@ -14678,7 +14679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>13</v>
       </c>
@@ -14701,7 +14702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>13</v>
       </c>
@@ -14727,7 +14728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>9</v>
       </c>
@@ -14750,7 +14751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>9</v>
       </c>
@@ -14776,7 +14777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>13</v>
       </c>
@@ -14799,7 +14800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>13</v>
       </c>
@@ -14825,7 +14826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>9</v>
       </c>
@@ -14848,7 +14849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>8</v>
       </c>
@@ -14871,7 +14872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>8</v>
       </c>
@@ -14894,7 +14895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>9</v>
       </c>
@@ -14920,7 +14921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>13</v>
       </c>
@@ -14943,7 +14944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>13</v>
       </c>
@@ -14969,7 +14970,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>9</v>
       </c>
@@ -14992,7 +14993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>9</v>
       </c>
@@ -15018,7 +15019,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>13</v>
       </c>
@@ -15041,7 +15042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>8</v>
       </c>
@@ -15064,7 +15065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>9</v>
       </c>
@@ -15090,7 +15091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>13</v>
       </c>
@@ -15113,7 +15114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>9</v>
       </c>
@@ -15139,7 +15140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>13</v>
       </c>
@@ -15162,7 +15163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>9</v>
       </c>
@@ -15188,7 +15189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>13</v>
       </c>
@@ -15211,7 +15212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>9</v>
       </c>
@@ -15237,7 +15238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>13</v>
       </c>
@@ -15260,7 +15261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>9</v>
       </c>
@@ -15286,7 +15287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>13</v>
       </c>
@@ -15309,7 +15310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>9</v>
       </c>
@@ -15335,7 +15336,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>13</v>
       </c>
@@ -15358,7 +15359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>9</v>
       </c>
@@ -15384,7 +15385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>13</v>
       </c>
@@ -15407,7 +15408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>9</v>
       </c>
@@ -15433,7 +15434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>13</v>
       </c>
@@ -15456,7 +15457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>13</v>
       </c>
@@ -15482,7 +15483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>9</v>
       </c>
@@ -15505,7 +15506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>9</v>
       </c>
@@ -15531,7 +15532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>13</v>
       </c>
@@ -15554,7 +15555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>9</v>
       </c>
@@ -15580,7 +15581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>13</v>
       </c>
@@ -15603,7 +15604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>13</v>
       </c>
@@ -15629,7 +15630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>9</v>
       </c>
@@ -15652,7 +15653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>9</v>
       </c>
@@ -15678,7 +15679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>13</v>
       </c>
@@ -15701,7 +15702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>8</v>
       </c>
@@ -15724,7 +15725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>8</v>
       </c>
@@ -15747,7 +15748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>9</v>
       </c>
@@ -15773,7 +15774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>13</v>
       </c>
@@ -15796,7 +15797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>8</v>
       </c>
@@ -15819,7 +15820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>9</v>
       </c>
@@ -15845,7 +15846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>13</v>
       </c>
@@ -15868,7 +15869,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>9</v>
       </c>
@@ -15894,7 +15895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>13</v>
       </c>
@@ -15917,7 +15918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>9</v>
       </c>
@@ -15943,7 +15944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>13</v>
       </c>
@@ -15966,7 +15967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>9</v>
       </c>
@@ -15992,7 +15993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>13</v>
       </c>
@@ -16015,7 +16016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>9</v>
       </c>
@@ -16041,7 +16042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>13</v>
       </c>
@@ -16064,7 +16065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>9</v>
       </c>
@@ -16090,7 +16091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>13</v>
       </c>
@@ -16113,7 +16114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>9</v>
       </c>
@@ -16139,7 +16140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>13</v>
       </c>
@@ -16162,7 +16163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>9</v>
       </c>
@@ -16188,7 +16189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>13</v>
       </c>
@@ -16211,7 +16212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>8</v>
       </c>
@@ -16234,7 +16235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>8</v>
       </c>
@@ -16257,7 +16258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>9</v>
       </c>
@@ -16283,7 +16284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>13</v>
       </c>
@@ -16306,7 +16307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>9</v>
       </c>
@@ -16332,7 +16333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>13</v>
       </c>
@@ -16355,7 +16356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>9</v>
       </c>
@@ -16381,7 +16382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>13</v>
       </c>
@@ -16404,7 +16405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>9</v>
       </c>
@@ -16430,7 +16431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>13</v>
       </c>
@@ -16453,7 +16454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>8</v>
       </c>
@@ -16476,7 +16477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>9</v>
       </c>
@@ -16502,7 +16503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>13</v>
       </c>
@@ -16525,7 +16526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>9</v>
       </c>
@@ -16551,7 +16552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>13</v>
       </c>
@@ -16574,7 +16575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>9</v>
       </c>
@@ -16600,7 +16601,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>13</v>
       </c>
@@ -16623,7 +16624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>9</v>
       </c>
@@ -16649,7 +16650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>13</v>
       </c>
@@ -16672,7 +16673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>9</v>
       </c>
@@ -16698,7 +16699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>13</v>
       </c>
@@ -16721,7 +16722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>9</v>
       </c>
@@ -16747,7 +16748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>13</v>
       </c>
@@ -16770,7 +16771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>9</v>
       </c>
@@ -16796,7 +16797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>13</v>
       </c>
@@ -16819,7 +16820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>9</v>
       </c>
@@ -16845,7 +16846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>13</v>
       </c>
@@ -16868,7 +16869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>9</v>
       </c>
@@ -16894,7 +16895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>13</v>
       </c>
@@ -16917,7 +16918,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>8</v>
       </c>
@@ -16940,7 +16941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>8</v>
       </c>
@@ -16963,7 +16964,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>9</v>
       </c>
@@ -16989,7 +16990,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>13</v>
       </c>
@@ -17012,7 +17013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>9</v>
       </c>
@@ -17038,7 +17039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>13</v>
       </c>
@@ -17061,7 +17062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>8</v>
       </c>
@@ -17084,7 +17085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>9</v>
       </c>
@@ -17110,7 +17111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>13</v>
       </c>
@@ -17133,7 +17134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>9</v>
       </c>
@@ -17159,7 +17160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>13</v>
       </c>
@@ -17182,7 +17183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>9</v>
       </c>
@@ -17208,7 +17209,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>13</v>
       </c>
@@ -17231,7 +17232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>9</v>
       </c>
@@ -17257,7 +17258,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>13</v>
       </c>
@@ -17280,7 +17281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>9</v>
       </c>
@@ -17306,7 +17307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>13</v>
       </c>
@@ -17329,7 +17330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>9</v>
       </c>
@@ -17355,7 +17356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>13</v>
       </c>
@@ -17378,7 +17379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>9</v>
       </c>
@@ -17404,7 +17405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>13</v>
       </c>
@@ -17427,7 +17428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>9</v>
       </c>
@@ -17453,7 +17454,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>13</v>
       </c>
@@ -17476,7 +17477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>8</v>
       </c>
@@ -17499,7 +17500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>8</v>
       </c>
@@ -17522,7 +17523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>9</v>
       </c>
@@ -17548,7 +17549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>13</v>
       </c>
@@ -17571,7 +17572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>9</v>
       </c>
@@ -17597,7 +17598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>13</v>
       </c>
@@ -17620,7 +17621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>9</v>
       </c>
@@ -17646,7 +17647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>13</v>
       </c>
@@ -17669,7 +17670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>9</v>
       </c>
@@ -17695,7 +17696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>13</v>
       </c>
@@ -17718,7 +17719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>8</v>
       </c>
@@ -17741,7 +17742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>9</v>
       </c>
@@ -17767,7 +17768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>13</v>
       </c>
@@ -17790,7 +17791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>9</v>
       </c>
@@ -17816,7 +17817,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>13</v>
       </c>
@@ -17839,7 +17840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>9</v>
       </c>
@@ -17865,7 +17866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>13</v>
       </c>
@@ -17888,7 +17889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>9</v>
       </c>
@@ -17914,7 +17915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>13</v>
       </c>
@@ -17937,7 +17938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>9</v>
       </c>
@@ -17963,7 +17964,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>13</v>
       </c>
@@ -17986,7 +17987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>9</v>
       </c>
@@ -18012,7 +18013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>13</v>
       </c>
@@ -18035,7 +18036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>9</v>
       </c>
@@ -18061,7 +18062,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>13</v>
       </c>
@@ -18084,7 +18085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>9</v>
       </c>
@@ -18110,7 +18111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>13</v>
       </c>
@@ -18133,7 +18134,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>9</v>
       </c>
@@ -18159,7 +18160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>13</v>
       </c>
@@ -18182,7 +18183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>9</v>
       </c>
@@ -18208,7 +18209,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>13</v>
       </c>
@@ -18231,7 +18232,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>8</v>
       </c>
@@ -18254,7 +18255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>8</v>
       </c>
@@ -18277,7 +18278,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>9</v>
       </c>
@@ -18303,7 +18304,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>13</v>
       </c>
@@ -18326,7 +18327,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>9</v>
       </c>
@@ -18352,7 +18353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>13</v>
       </c>
@@ -18375,7 +18376,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>8</v>
       </c>
@@ -18398,7 +18399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>9</v>
       </c>
@@ -18424,7 +18425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>13</v>
       </c>
@@ -18447,7 +18448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>9</v>
       </c>
@@ -18473,7 +18474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>13</v>
       </c>
@@ -18496,7 +18497,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>9</v>
       </c>
@@ -18522,7 +18523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>13</v>
       </c>
@@ -18545,7 +18546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>9</v>
       </c>
@@ -18571,7 +18572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>13</v>
       </c>
@@ -18594,7 +18595,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>9</v>
       </c>
@@ -18620,7 +18621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>13</v>
       </c>
@@ -18643,7 +18644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>9</v>
       </c>
@@ -18669,7 +18670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>13</v>
       </c>
@@ -18692,7 +18693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>9</v>
       </c>
@@ -18718,7 +18719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>13</v>
       </c>
@@ -18741,7 +18742,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>9</v>
       </c>
@@ -18767,7 +18768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>13</v>
       </c>
@@ -18790,7 +18791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>8</v>
       </c>
@@ -18813,7 +18814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>8</v>
       </c>
@@ -18836,7 +18837,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>9</v>
       </c>
@@ -18862,7 +18863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>13</v>
       </c>
@@ -18885,7 +18886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>9</v>
       </c>
@@ -18911,7 +18912,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>13</v>
       </c>
@@ -18934,7 +18935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>8</v>
       </c>
@@ -18957,7 +18958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>9</v>
       </c>
@@ -18983,7 +18984,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>13</v>
       </c>
@@ -19006,7 +19007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>9</v>
       </c>
@@ -19032,7 +19033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>13</v>
       </c>
@@ -19055,7 +19056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>9</v>
       </c>
@@ -19081,7 +19082,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>13</v>
       </c>
@@ -19104,7 +19105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>9</v>
       </c>
@@ -19130,7 +19131,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>13</v>
       </c>
@@ -19153,7 +19154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>9</v>
       </c>
@@ -19179,7 +19180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>13</v>
       </c>
@@ -19202,7 +19203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>9</v>
       </c>
@@ -19228,7 +19229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>13</v>
       </c>
@@ -19251,7 +19252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>8</v>
       </c>
@@ -19274,7 +19275,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>8</v>
       </c>
@@ -19297,7 +19298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>9</v>
       </c>
@@ -19323,7 +19324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
         <v>13</v>
       </c>
@@ -19346,7 +19347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>9</v>
       </c>
@@ -19372,7 +19373,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
         <v>13</v>
       </c>
@@ -19395,7 +19396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
         <v>9</v>
       </c>
@@ -19421,7 +19422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>13</v>
       </c>
@@ -19444,7 +19445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
         <v>8</v>
       </c>
@@ -19467,7 +19468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
         <v>9</v>
       </c>
@@ -19493,7 +19494,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
         <v>13</v>
       </c>
@@ -19516,7 +19517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
         <v>9</v>
       </c>
@@ -19542,7 +19543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
         <v>13</v>
       </c>
@@ -19565,7 +19566,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
         <v>9</v>
       </c>
@@ -19591,7 +19592,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
         <v>13</v>
       </c>
@@ -19614,7 +19615,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
         <v>9</v>
       </c>
@@ -19640,7 +19641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
         <v>13</v>
       </c>
@@ -19663,7 +19664,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
         <v>9</v>
       </c>
@@ -19689,7 +19690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
         <v>13</v>
       </c>
@@ -19712,7 +19713,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
         <v>9</v>
       </c>
@@ -19738,7 +19739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
         <v>13</v>
       </c>
@@ -19761,7 +19762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
         <v>8</v>
       </c>
@@ -19784,7 +19785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
         <v>8</v>
       </c>
@@ -19807,7 +19808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
         <v>9</v>
       </c>
@@ -19833,7 +19834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
         <v>13</v>
       </c>
@@ -19856,7 +19857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
         <v>8</v>
       </c>
@@ -19879,7 +19880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
         <v>9</v>
       </c>
@@ -19905,7 +19906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>13</v>
       </c>
@@ -20156,6 +20157,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="882bdec5-c3ce-4705-9a84-58ed8ad203ea" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -20164,22 +20173,39 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="882bdec5-c3ce-4705-9a84-58ed8ad203ea" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C21D0A-65D6-47B6-8E76-5D8CAE45D404}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C21D0A-65D6-47B6-8E76-5D8CAE45D404}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
+    <ds:schemaRef ds:uri="c6fe3531-949f-4c96-ac1d-b793c48e3f25"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C58A68F-A5E9-4F6F-AD01-06B5D5C01F66}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABD986A7-2A39-40F9-A024-B808D196BF4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="882bdec5-c3ce-4705-9a84-58ed8ad203ea"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABD986A7-2A39-40F9-A024-B808D196BF4D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C58A68F-A5E9-4F6F-AD01-06B5D5C01F66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>